--- a/Season_Trophies/85.xlsx
+++ b/Season_Trophies/85.xlsx
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ñîmrā</t>
+          <t>:::::Ñîmrā:::::</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
